--- a/开发文档文件夹/世界物品信息表.xlsx
+++ b/开发文档文件夹/世界物品信息表.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC3B98-90E6-4570-A399-B7AB59F6FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099B633-280F-412E-B390-A0D1B3CFD70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="生物基础属性和行为表格" sheetId="2" r:id="rId1"/>
     <sheet name="游戏物体" sheetId="3" r:id="rId2"/>
+    <sheet name="SO" sheetId="8" r:id="rId3"/>
+    <sheet name="游戏开始系统" sheetId="6" r:id="rId4"/>
+    <sheet name="合成系统" sheetId="5" r:id="rId5"/>
+    <sheet name="时间系统" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="142">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +198,396 @@
   </si>
   <si>
     <t>取消对TileData继承的使用 ,改为为TileData添加Mod系统, 通过为TileData添加各种ModData实现类似物品转变的形式  如此添加了各种Mod的TileData就可以组成各种各样的地块了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于在耕地上种植小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键耕地 在目标位置生成小麦 同时减少自身数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家右键检测器(父对象检测)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用木头制作的用于使耕地保持湿润的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹匣模块: 使用Value和MaxValue规定水壶 模块会监听其他的动作(UltEvent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右键耕地 为耕地添加湿润度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头生成_SO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上生成石头Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块生成_SO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成物品 通常在石地处生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要独特的合成机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要简单但是深入人心的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要过于繁琐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成表要有规律(可推导,由A合成表 然后结合现实 推出B合成表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体+客体合成方式</t>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格合成,类似我的世界的合成方式</t>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平淡乏味的无序的普通合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体:</t>
+  </si>
+  <si>
+    <t>客体</t>
+  </si>
+  <si>
+    <t>石头*1</t>
+  </si>
+  <si>
+    <t>木棍*1</t>
+  </si>
+  <si>
+    <t>纤维绳*1</t>
+  </si>
+  <si>
+    <t>纤维绳*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色:通过分配材料为主要材料 和 可选材料 制作出不同的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展:通过选用性能不同的主,客体材料 对制作出来的物品产生影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1.5:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心+主要+次要 由三种材料合成物品的合成方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成表扩展性强 对于游玩过我的世界的玩家友好(游戏也和 我的世界大多系统相似)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石头 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">木棍 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单易上手 没有啥别的特色了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案4: 背包搜寻列表合成 通过搜寻背包中的材料 列出可以合成的物品 (类似7日杀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.石镐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.石剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.石斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">比方案三还简单的合成方式 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚至不需要手动放置物品到合成栏位</t>
+  </si>
+  <si>
+    <t>缺点是不方便拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =石斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =1,F37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现方式:组合形成的Key 通过字典查询 实现合成产物的查询输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(可以使用现有的合成方式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择存档界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中存档中的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save_2</t>
+  </si>
+  <si>
+    <t>Save_3</t>
+  </si>
+  <si>
+    <t>Player_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_2</t>
+  </si>
+  <si>
+    <t>Player_3</t>
+  </si>
+  <si>
+    <t>Player_4</t>
+  </si>
+  <si>
+    <t>Player_5</t>
+  </si>
+  <si>
+    <t>Player_6</t>
+  </si>
+  <si>
+    <t>Player_7</t>
+  </si>
+  <si>
+    <t>Player_8</t>
+  </si>
+  <si>
+    <t>Save_4</t>
+  </si>
+  <si>
+    <t>Save_5</t>
+  </si>
+  <si>
+    <t>Save_6</t>
+  </si>
+  <si>
+    <t>Save_7</t>
+  </si>
+  <si>
+    <t>Save_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键菜单左右键都通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既可以修改世界名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又可以修改玩家名称还有删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始新游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档名称 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档种子:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建玩家页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构成世界的主要物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由木头组成的长条状物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长模块 繁殖模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在光照充足的情况下会不断生长 在生长进度满后 会在周围1单位的范围内复制一份自己 复制的自己的参数也就是Food参数会随机产生浮动 浮动范围为原属性+-10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,16 +625,58 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -248,13 +684,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,9 +893,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +1342,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -682,132 +1412,916 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453D7389-7E33-4ED5-900A-5D828641610F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="72.44140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="11.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="72.44140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="104.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="104.4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A686E9C-DDAE-4FAD-B6F5-BBC5FE607FD0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB2B5A8-C9D3-4CD4-BC11-252E25EF506E}">
+  <dimension ref="B1:T31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="3.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="K2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="K3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="Q3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="K4" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="Q4" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="E5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="K5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="Q5" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="K6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="Q6" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="32"/>
+    </row>
+    <row r="7" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="E7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="K7" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="Q7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="K8" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="Q8" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="K9" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
+      <c r="Q9" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="K10" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" s="33"/>
+    </row>
+    <row r="17" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:19" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="M22" s="25"/>
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="M23" s="25"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="D24" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="M24" s="25"/>
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="M25" s="25"/>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="D26" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="H26" s="26"/>
+      <c r="M26" s="25"/>
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+      <c r="E27" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="M27" s="25"/>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="M28" s="25"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="M29" s="25"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="M30" s="25"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79C9C5-C213-4318-9ED7-3A2250C04BB2}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="E7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="K7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="E9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="O9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="O10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="G23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A99375A-4483-4F2F-8FFF-1232F7675527}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>